--- a/misc/src/main/resources/schedule.xlsx
+++ b/misc/src/main/resources/schedule.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6470C01-66CF-2D4B-81CF-C4CB7A3FB2B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{D1962064-F803-4749-991F-EC43E50EBC23}"/>
+    <workbookView xWindow="5235" yWindow="2340" windowWidth="28035" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>check 24</t>
   </si>
@@ -61,13 +55,16 @@
   </si>
   <si>
     <t>interview with kalman 29.06.20 15:00 - 15:30 https://personio.zoom.us/j/7453330332</t>
+  </si>
+  <si>
+    <t>interview 29.06.20 12:00 meet.google.com/qcd-npzd-eyv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,8 +107,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,7 +218,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -415,27 +412,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45FE5A3-B7DD-CE4E-B902-A0850C82A3BA}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -454,18 +451,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -483,7 +483,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.qualified.io/assess/5d76413019bb32276b3b7624?activate=rjrXPiwcfzkUeg.5ef49a2f55a653000d719ea7&amp;email=gsaukov%40yahoo.com&amp;invite=RfgBsc5jefZrKA" xr:uid="{71E7DB21-74C8-F149-B754-70F2933BD550}"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.qualified.io/assess/5d76413019bb32276b3b7624?activate=rjrXPiwcfzkUeg.5ef49a2f55a653000d719ea7&amp;email=gsaukov%40yahoo.com&amp;invite=RfgBsc5jefZrKA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/misc/src/main/resources/schedule.xlsx
+++ b/misc/src/main/resources/schedule.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgy.saukov/Desktop/dev/training/java-machine/misc/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0FB6A4-D3AA-A44C-99CF-0936416B44E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2340" windowWidth="28035" windowHeight="16440"/>
+    <workbookView xWindow="6900" yWindow="3360" windowWidth="28040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -57,14 +63,14 @@
     <t>interview with kalman 29.06.20 15:00 - 15:30 https://personio.zoom.us/j/7453330332</t>
   </si>
   <si>
-    <t>interview 29.06.20 12:00 meet.google.com/qcd-npzd-eyv</t>
+    <t>interview 30.06.20 12:00 meet.google.com/qcd-npzd-eyv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,8 +113,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,27 +418,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -451,7 +457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -465,7 +471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -473,7 +479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -483,7 +489,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://www.qualified.io/assess/5d76413019bb32276b3b7624?activate=rjrXPiwcfzkUeg.5ef49a2f55a653000d719ea7&amp;email=gsaukov%40yahoo.com&amp;invite=RfgBsc5jefZrKA"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://www.qualified.io/assess/5d76413019bb32276b3b7624?activate=rjrXPiwcfzkUeg.5ef49a2f55a653000d719ea7&amp;email=gsaukov%40yahoo.com&amp;invite=RfgBsc5jefZrKA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
